--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2757.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2757.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163128731664563</v>
+        <v>1.904526829719543</v>
       </c>
       <c r="B1">
-        <v>2.423957433884186</v>
+        <v>2.187911748886108</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.384790182113647</v>
       </c>
       <c r="D1">
-        <v>2.366829190342944</v>
+        <v>3.477867126464844</v>
       </c>
       <c r="E1">
-        <v>1.223366465007597</v>
+        <v>1.195002555847168</v>
       </c>
     </row>
   </sheetData>
